--- a/public/hotel.xlsx
+++ b/public/hotel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,676 +436,998 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>潮州民宿也太好看了吧‼️不晚驿站‼️</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>#性价比高酒店#潮州民宿#潮州打卡 ✔️潮州旅游推荐酒店！ 📍 不晚驿站（潮州古城店） ✅环境 	 1️⃣公共空间有独立空中花园🏕️，潮式茶几（都可以使用） 	 2️⃣有4只宠物猫咪🐱（爱猫人士必选）超乖🉑撸 3️⃣KTV唱歌设备、巨幕屏（可看电影🉑投影）可以开party、花园有桌子。 4️⃣位置距离牌坊街、西湖1公里左右（可停车🅿️、路边叫车方便，门口就有扫码电动车🛵） ✅客房 整体环境干净亮堂，管家随时在线！ 各种各样主题房、套房、标间 力荐：家庭亲子游‼️套房的双床很大 朋友聚会游‼️可以叫外卖、花园可以开party喝茶 团建‼️有大的客厅还有外场、都合适娱乐 	 ✅周边 牌坊街、西湖1.2公里 酒吧2公里 潮州电视台500米 南风里、商场（餐厅）2.5公里。 ‼️价格‼️很学生党‼️很经济‼️很高级‼️很度假⛱️ #学生党旅游住宿#酒店推荐#潮州打卡#潮州古城#潮州酒店#潮州名宿推荐#潮州好玩的地方推荐</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1040g00831amjv7tk7a1g5n6i0ng405td5ijhun0!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>潮汕跟团已回 和领队的聊天记录（不删！</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>在去完东北之后感觉自己又行了，正好手头有点小存款，这次果断决定潮汕冲冲冲！🚗💨 经历了三四天的对比，硬是加了二十几家旅行社。最后还是朋友力荐了一家潮汕本地团，毕竟她亲自体验过，给打工人的宝贵假期增添了一份安心感～ 关于这个团的体验： 1️⃣ 费用透明、服务齐全 团费除了正餐，包含了景点门票、酒店住宿、保险、包车服务、专业领队、24小时接送站和游玩项目。整个行程完全没有隐形消费，中途也没有“强制自费”，真的是明明白白、踏踏实实玩了4天。 2️⃣ 路线设计合理 去了汕头小公园、南澳岛、青澳湾、潮州古城、广济桥等经典打卡地，还特别安排了渔船出海、品潮汕牛肉火锅和本地特色下午茶，每天都很充实但不疲劳。 3️⃣ 小姐妹氛围感拉满 报团前特意跟客服强调希望尽量拼小姐妹团，果然都是同年龄段的女生，大家玩得很开心又能互相照顾！一路上各种拍照打卡，甚至还认识了一个拍照大神小姐妹，随手一拍都是大片级别，真的超美好～ 4️⃣ 领队靠谱、安排贴心 领队全程非常负责，讲解风趣幽默，帮忙安排特色美食，还会定时提醒防晒防潮。途中每隔1-2小时都会安排短暂休息，确保舒适又安全～ 选团建议： 🌟 一定要选潮汕本地团！ 本地团熟悉路线和特色玩法，不容易踩坑。而且如果出了问题，本地团队处理更及时，千万别贪便宜选那些外地组团赚差价的团。 🌟 确认资质，签正规合同 让旅行社提供营业资质和电子合同，交定金时建议通过对公账户或正规平台支付，避免后续纠纷。 🌟 提前沟通特殊需求 如果是女生出行或者亲子游，提前和客服沟通，他们都会尽量安排好，省心又贴心。 关于穿搭： 潮汕的天气虽然比北方温暖，但海风湿润，建议带轻便保暖的衣物。 ✔ 薄外套 + 连衣裙 + 牛仔裤 + 防风外套 ✔ 防滑舒适的运动鞋或小白鞋 ✔ 帽子、围巾、墨镜等出门必备 其他补充： 总的来说，这次潮汕之行从行程到服务都非常满意，小姐妹们也都玩的超开心～如果你也计划去潮汕，一定要选小而精的本地团！🍲🌊 #潮汕旅行#潮汕旅游攻略#潮汕#南澳岛#潮州古城#汕头美食#潮汕小团#出游避坑#小姐妹团#国内旅游日常</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1040g2sg31ampek9mng405pq5qu773fug5vsircg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>潮州！古城附近！人均150块💰太好住了！</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>潮州古城附近这家酒店我真的吹爆😭 现代风好符合年轻人的审美！ ✅近潮州古城✅房间设施齐全 ✅免费停车 人均才这个价！以后来潮州...🔒死这家平价酒店 - ✨位置深得我心！ 离牌坊街广济桥开元寺韩公祠等景点很近 周围美食很多，和姐妹出去吃吃喝喝很方便 离古城步行半小时，🚖打车8分钟，很方便 酒店有自己的停车场，可以免费停车🅿 - ✨房间好好住我好爱！ 房间宽敞干净，设施齐全，还配有小冰箱 里面有茶水矿泉水和可乐和小点心 晚上还有免费潮州豆花🥣 浴室干净整洁，淋浴设施出水量大非常好用 洗了头吹风机三两下就吹干了 - ✨前台的哥哥姐姐很温暖 酒店前台都是比较年轻的小哥哥，姐姐💁 服务态度真非常真诚温暖 还会给一份潮汕的旅游攻略🗺以及美食攻略 早餐很丰盛，退房还送一盒水果🍊 #潮州#潮汕旅游#周末去哪儿#潮州旅行#潮州打卡#潮州探店#旅行#旅游#潮州酒店推荐#潮州酒店</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1040g2sg3147n0ot45ab05pi2qu61ojit76n1mo8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>潮汕旅游住宿安排看这篇就够了｜真消费💰</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>去潮汕（潮州、汕头、南澳岛）旅游怎么安排住宿 看这篇就够了✈️ 我可是外地游客已经从潮汕那边回来了，真实消费说真话💁🏻‍♀️消费的图和订的那些民宿和酒店都放后面了👀 潮州民宿名字：喜欢梨 美宿@潮州｜喜欢梨美宿 潮州的这个民宿也在一个居民区的巷子里面，是一个95年小姐姐自己创业搞的，房间很干净卫生，距离各大景区都不远，骑一个共享电动车🛵去哪里都方便，但是个人建议打车，因为那边打车也不贵，和两个人骑两个共享电动车的价格差不多主要是共享电动车🛵还车点很固定，不方便，还是推荐打车🚗 南澳岛民宿名字：岛宿 临海居（没找到他家的账号就不艾特了） 南澳岛这个民宿是我同事过年去的，推荐给我的，真心不错，可以在房间里面看海，在后宅，而且才100➕这个价格还能看海，房间还大，要啥自行车🚲我对比了好多家，最后也是订的这一家，强烈推荐！南澳岛我是租了个电动车🛵到处跑，我租电动车那家女老板人也超级好。 汕头酒店名字：半夏轻居 我最推荐的一家店‼️说实话 我也是看网友推荐才订的，我才订的时候 还挺忐忑的，因为太便宜了❗️真的太便宜了❗️还怕有啥缺点，结果去了，0缺点🤙🏻只有优点👏在小公园附近，去哪里都很方便，强烈推荐👍 #潮州#南澳岛#汕头#潮汕旅游#潮州民宿#南澳岛民宿#汕头住宿推荐#潮州旅行#南澳岛旅游#汕头旅行</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1040g2sg31amlbaf37e8g4a46svqes286qucciv0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>10月16日潮汕 姐妹们有没有酒店推荐，带娃</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1040g008318nnpq9jjq0048uf6a1t42tims3p0p0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>来潮州旅游住宿都给大家安排好了‼️‼️</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>暑假、国庆各种假期🈶计划来潮州旅行的宝子们住宿别住贵了！！潮州民宿➕酒店合集，总有一款适合你‼️ 1️⃣潮Hotel·简居 想住在古城里还想要ins风民宿选这家❗️房型🈶大床、双床、浴缸房、亲子房、庭院房！下楼就是牌坊街、开元寺，出行交通便利，处于牌坊街C位！ 2️⃣潮Hotel·滨江美栖酒店 位置真是去哪都方便！楼下🈶共享单车！三分钟到牌坊街！🛏️房型选择也多样：双床/大床/日式榻榻米！酒店都会送双早～学生党们🉑冲！性价比嘎嘎高！ 3️⃣潮Hotel·莫奈花园 民宿就在潮州古城内，位置很好找🏠周边500m都是网红打卡点📷房型有✅大床房✅圆床房✅双床房✅亲子房！民宿是高空民宿🏨还可俯瞰整个潮州古城！落地窗全景景观🌃还有💁24小时前台随叫随到！！入住还能吃到民宿准备的水果🍉和糖水 4️⃣潮Hotel·坊居 📍位于牌坊街古城内！停车方便🅿️到达民宿后会安排管家帮你拿行李🧳周边超多美食与景点，出行很方便～房间内采用智能语音控制，配置大屏投影，浴缸🛁一次性洗漱用品齐全！还有🆓免费提供咖啡与花茶🍵 5️⃣潮Hotel·巷里摩洛哥 民宿一进门看到壁画涂鸦的是摩洛哥风景🍃 房间里丰富的色彩摩洛哥氛围感拉满！房型🈶大床房、双床房、亲子房，房间内都有配套高清投影仪、浴缸🛁、智能管家、配套设施齐全、洗漱用品一应俱全！🏨民宿就在潮州古城区！步行不到2分钟就到潮州各种热门景区👍 6️⃣潮Hotel·西尔蒙美宿 性价比挺高的一家🏨有酒店的设施很全，很贴心可以拎包放心入住，有一次性的用品都很齐全！有多种房型可选择！房间都是那种温馨的调调！管家随叫随到！自驾也有免费停车场🅿️ @潮州·潮Hotel民宿#平价酒店#设计感超强的民宿#酒店推荐#潮州#潮州旅行#潮州古城#潮州牌坊街#潮州民宿#潮州酒店#潮州旅游</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1040g2sg31568b11g14d05p5pps95780c1k544ho!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>这是潮州天花板酒店了👻</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>广济桥一线江景房#潮州</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1040g2sg30v70dsj55i204bfdf8fa2mslip73270!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>深圳到潮汕周末游玩路线</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>📸大概游玩路线（两天一夜） 泰佛殿👉牌坊街👉开元寺👉广济楼👉广济桥👉南澳岛👉汕头龙眼南路 	 第一天：深圳坪山站-潮汕站 🚅高铁119元：高铁一个半小时，上午早一点过去就行（也可深圳北过去：票价135元）。 🚖打滴滴到酒店70元：金额是个大概的数，我们是从高铁站打车到🍊桔子酒店（离广济楼、泰佛殿很近）。 🏨酒店350元：酒店就看自己选了，价格不定，最好选择华住会上面的连锁酒店，整体会好一些。 🏰泰佛殿0元：在酒店放完行李，直奔泰佛殿，无需门票🎫，门口非常多吆喝租衣服拍照的商家，大家自行斟酌，我怕他们不洗，就没拍；进去以后自己拍照游玩，这里面建筑确实很好看，不过园区不大，拍一拍逛一逛，顶天一个小时就差不多啦～ 🏚牌坊街0元：无需门票🎫，牌坊街与泰佛殿就一座桥的距离，逛玩泰佛殿可以打车过去，也可以坐公交车。到了牌坊街逛一逛吃一吃，油柑汁、腐乳鸡翅比较推荐，不过里面吃的容易踩雷，按本地人说就是“除了景区里面的都好吃”，所以大家自己看着买吧。 🏰开元寺0元：在牌坊街一直往前走就会看到开元寺，里面非常好看，很有氛围，屋顶嵌瓷一定要看看，很热闹～ 🏚广济楼—广济桥20元：广济桥20门票，从开元寺出来往左一直走，会看到城墙，那边出去就是广济桥了，自己去拍拍照打卡，上桥门票20即可。晚上要看灯光秀的可以逛到8点，中间休息休息，8点有灯光出来挺好看的，但是人特别多。 	 第二天：潮汕站——汕头站（越早越好） 🚅到汕头站24元：一等座24，二等座12，自己选择，反正也就十几二十分钟～ 🏨酒店350元：价格不等，可以住万象城附近，就在龙眼南路前面，我们住在高铁站旁边的星程酒店，因为坐公交就能直接上南澳岛。 🌊南澳岛0元：建议早上早一点坐公交上岛，人少很好玩！公交是161A，12元就可以，如果是开车的话要96元过桥费。上岛之后在游客中心站下车，下车对面美宜佳旁边就是租电驴🛵的地方，我们租了一上午是50，。跟着路线骑车环岛游就行，一路上都很美，记得做好防晒！！ 🌈龙眼南路0元：来了龙眼南路就是逛吃逛吃了，很多网红美食店都排长队，吃哪家就自己选择吧，我们没去排队等，随便找的，可以尝尝狮头鹅、牛腩饭、反沙、甘草水果、腐乳鸡翅、牛肉火锅、沙嗲面、海鲜等等 🚅汕头回深圳132元：晚上高铁2小时就到。 	 #深圳潮汕#潮汕#南澳岛#浪漫的分享者#旅游攻略#旅行吃喝玩乐</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1040g008317u1ckssju705n1bf471m576a3rnvqg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>汕头！！无敌海景！！才200块💰不想退房</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>才200多！介个性价比我尊滴狠狠爱住了！🥰 位置绝佳✔️全海景落地窗✔️超大浴缸 带家人来度假，连住五天不想退房 . ✅地理位置很好 离小公园500米左右步行10分钟，离网红打卡汕头报社5分钟。去轮渡码头，火锅店，夜市一条街都可以直接小电驴开过去，15分钟都能到，打车一般都在8-18元，周边景点有礐石风景区、中山公园、妈屿岛旅游区、汕头老城等等 . ✅房间干净整洁宽敞、酒店床品跟舒服，软硬度刚刚好每天都是能秒睡💤，坐在靠窗看海景真的是非常惬意！客厅的大落地窗直接对着海湾🌊，视野开阔 . ✅体验感满分 走出酒店大门，面朝大海🌊，春暖花开。晚上漫步海滨长廊，晚风一吹，简直浪漫极了🌙。这里的美食也是应有尽有🍜，走几步就能找到地道的潮汕小吃，真是味蕾的享受 . 📍地址：汕头金平区海滨路（好多不同房型的海景房） #酒店推荐#度假酒店#平价酒店#汕头#汕头小公园#酒店#美食日常#度假</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1040g008315r1jga0ha505pjaicqgu9c10rure2o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>准备出发住的地方还没选好</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>#潮州旅游#潮州酒店民宿#潮州#潮州tui j#潮州美食</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1040g00831amj5cnqn2005ndp7g5g8ug4kubcb40!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>潮州｜🌻来潮州不知道住哪里看这篇就够了</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>🚗滴，来潮州，潮汕旅游不知道住哪里，总结了多个价位酒店，住宿不踩雷，一篇全搞定！无广！无广！！无广！！ 潮州经济型酒店选择比较多，中高端和高端酒店整体相对选择比较少，价格对比同级别城市相对较高，尤其节假日涨价幅度比较大，建议提前预定 	 100至200档次推荐 🌱汉庭韩山师范学院店/财富中心/古城店 都是新版本汉庭，整体来说古城店位置好，韩山师范学院店硬件好，落地窗，财富中心店适中。 🌱人民广场如家精选 全新版本如家，风格温馨舒适，位置也很好。 🌱魅丽曼国际韩江店 潮州本土连锁品牌，全屋智能，硬件在这个价位里档次很高，位置稍微有点偏。 🌱悦享行政公寓 酒店式公寓，新开业，房屋面积大，整体风格简约舒适，性价比很高。 其他推荐✨:人民广场如家one，枫春南路你好。 	 200至300档次推荐愉羽 单体独立酒店，落地窗，独栋物业，商务风格。 古城美居 法式浪漫风格酒店，华住在管，宽敞明亮，大飘窗，位置也很好。 其他推荐✨:云创园凯里亚德 	 300至450档次推荐莫奈花园 古城里的设计师酒店，奶油浪漫色系，很出片，房间都很有特点，整体是欧式居家感的感觉。 财库国际 现代商务四钻酒店，硬件很扎实，简约。 古城亚朵x 基本上亚朵轻居的风格稍微有些升级，安心舒适，亚朵的服务，整体不踩雷 。 其他推荐✨:panda熊猫来了，韩思熙湖。 	 450➕档次推荐 🌳有熊 万科旗下品牌，潮州古城里天花板级别酒店，围绕国学大师饶宗颐故居“莼园”布局，具有在地的艺术文化特色。 🌳皇冠假日 仅有的国际联号酒店，硬件也足够到位，潮州地标，高空城景视野。 其他推荐✨:临江酒店 	 🍭旅游了一百三十多个城市，打卡全国各价位酒店，无踩雷的文博研究生为大家推荐全国各地高性价比酒店，有需要推荐的城市可以留言，点个关注不迷路哦～ 	 #潮州旅游#潮州酒店推荐#潮州酒店#潮州民宿#潮州住宿#潮州住宿推荐#潮州住宿推荐#潮州旅行#潮州旅游攻略#潮州旅游住宿</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1040g008319j5j3immm5g49vojpkhfjmda816mfo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>去潮汕三天两夜，酒店推荐下！</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>22号出发潮汕，首站去潮州牌坊街附近，现在酒店还没有找好眼睛都看花了，3个大人两个小孩双床房，推荐下性价比高安静干净安全，有去过姐妹麻烦推荐下，汕头也有那就更好啦。#亲子酒店推荐#旅游推荐#酒店推荐#平价酒店</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1040g008317t6kjap4a504a4qpbdji2croeac9io!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>潮州➕汕头 潮汕两天一夜攻略</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>首先，个人认为潮汕没有什么特别想去的地方就没有太大必要去了，确实没什么景点和好玩的地方可逛，我们甚至感觉两天一夜的时间都多，当然潮汕美食是好吃的 ⛲️Day 1 潮州 【以下行程不到半天就能走完】 🚄高铁到达“潮汕站”离潮州古城还有一段距离，需要打车（大概四五十块钱的样子） 📍西马路小吃街 📍利和治茶（西马路店）潮州大字大卡 📍开元寺 📍牌坊街 📍镇海楼 📍广济楼（晚上有灯光，想看的朋友可以在牌坊街吃晚饭然后等天黑看夜景） 📍广济桥（20元门票，一个船搭的桥，想去的朋友要傍晚五点之前去哦，五点之后桥就拆掉了，但个人觉得没必要上桥） 🏨酒店建议住在潮州古城周边几公里，有很多酒店可以选择，打个车十块钱就能到古城啦 	 ⛲️Day 2 汕头 🚕早上网约车从潮州到汕头（大概100块钱） 🧳有寄存行李需要的朋友们可以寄存到“亮点士多店（至平路店）离汕头旅社200米距离 【以下行程半天就能走完】 📍汕头旅社：打卡汕头大字，我们约了摄影师，所以第一站直接到这里照相啦，照完慢慢玩～大家如果担心人多也可以约摄影师，现场有很多选择 📍汕头小公园：中山纪念亭，K Coffee二楼机位可以打卡，人太多了而且很热我们就没去 📍汕头邮局总局大楼：建筑很好看，附近还有网红店temp coffee 📍西堤公园 📍广场轮渡 🚄高铁返程：汕头站离市内不远的，打车二十分钟可到～ 	 🧋潮汕美食推荐： 1️⃣潮州：官塘兄弟牛肉火锅，非常好吃！！肉很嫩～建议大家错峰去，我们吃完12:30左右外面就开始排大队啦 2️⃣潮州：双生肠粉，粉皮嫩嫩的，好吃 3️⃣潮州：鱼生，我没吃，男朋友说味道还行 4️⃣潮州：瑞娇嫲嫲潮汕生腌，我们点了螃蟹、虾、生蚝，可以看出很新鲜但我不吃生的就没尝，喜欢的朋友可冲 5️⃣汕头：福合埕牛肉丸，粿条很好吃！ #潮汕#潮汕美食#潮汕牛肉火锅#潮汕生腌#潮州旅行#汕头旅行</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1040g2sg314vqc7q70qbg4ba1enp1ekh36rip0u0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>潮汕-吃吃吃</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>说明：我们去潮汕主打吃，然后顺便在消化的时候逛逛附近景点。 住🏠：汕头万豪 挺新的星级酒店，在高空，离吃喝玩乐打车也近 （正好有朋友住在潮州古城里特色建筑改造的酒店，感觉非常有特色。虽然不好走入，但会有小高尔夫车接送，喜欢可尝试） 交通🚗：第二天从汕头打车来回潮州，单程💰150以内 吃🍽️😚 🦐第一天 汕头 ·直奔龙眼南美食街体验当地小吃，凉茶肠粉等这条街上都有，都非常好吃。生腌吃了家连锁的，一般般，感觉不是很必要这里吃，可以留给专门吃白粥的地方再吃。 ·然后我们因为没做安排瞎走了一通去了轮渡⛴️，来回坐了俩次。但太阳下山，所以就拍了一点夜景。建议小吃街吃完直冲轮渡！来回¥2 ·晚饭吃了牛肉火锅，是🚖时让当地师傅推荐就近的。我不太记得叫什么了，但肉新鲜便宜。点了6-7盘俩个人才¥300左右！ ·晚上回酒店点了特色糖水【细姨甜汤】还不错，主打尝试下特色。 🦐第二天 潮州 ·起床就打车到潮州古城开始炫饭 牛肉粿条，烧鹅，甘草水果。反正都在古城里边吃边逛一天。超级开心。 潮州的烧鹅是很特别的好吃，一定要尝试。 ·潮州古城真的很有特色，历史，商业和居民的融合特别有意思。爱了。附近也有景点寺庙、桥等，享受美食后，消化时候景点也逛了。 ·古城里也有漂亮的咖啡店和茶馆，适合逛累了小歇。 汕头🔙 ·晚上回汕头吃了白粥，选择了吴记富苑。大家说这家是最贵的。但的确环境，服务令人舒适。然后菜品我也觉得很好吃～😋 🦐第三天 汕头 ✈️回家前去炫了黑珍珠山海居。中午没什么人，老板娘热情服务。食材新鲜，烹饪的也很好。性价比不错？俩人¥1000多，都是海鲜。鲍鱼等。我觉得好吃的，姐姐觉得正常发挥。 最后一张图附上我的汕头攻畋笔记。待下次再吃😛 	 #潮汕旅游#潮汕吃喝玩乐#吃吃喝喝的日常#吃吃喝喝#汕头美食#潮州旅行</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1040g2sg31862miae3kc05ntrijhgbug5b4p4g8o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>📍汕头｜一家极具潮汕特色的五钻酒店</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>🏨DIOTEL潮酒店(汕头高铁站店) 🍃环境：酒店由知名设计师洪忠轩操刀，以竹子🎋为灵感，绿色为基调，整体清新雅致又不失韵味。 	 📍位置：酒店位于汕头有名的美食街珠江路上，随时可以品尝汕头本地美食。酒店距离汕头站🚄仅2公里，门口就有公交车站，不管开车还是坐公交10分钟之内可到汕头站。 	 💟特色：作为一家汕头本地的五钻酒店，酒店融入了很多潮汕本地的元素。每天晚上有制作潮汕特色红桃粿🩷的体验课，做完还可以品尝 每周六还有本地特色的潮剧表演。房间有潮汕本地🍵“凤凰单丛”，早餐有当地特色“粿条汤”🍲，都是属于潮汕的味道。 	 🛏️房间：我入住的是基础大床房，房间很宽敞，mini bar的小零食很丰富。全屋智能 语音唤醒、智能马桶、淋浴间🚿和厕所🚽分开、大屏电视投屏📺。浴袍柔软，床垫舒适。 	 🍽早餐：这家酒店的早餐十分丰富，中西早餐、本地特色粿条汤 茶点、新鲜水果、各种饮料……应有尽有。室内和室外均设有用餐区，室外用餐区明亮自然，音乐舒缓🎵 	 — 如果来汕头玩，既想体验潮汕文化，又想品尝当地美食，还想离高铁站近 出行方便。很推荐这家DIOTEL潮酒店！#汕头#汕头旅行#汕头酒店#潮汕</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1040g008319gab6iu7e0g4br9j9pjnhlfphjh6n0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>广州大学生潮汕三日游（附攻略</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>想去潮汕很久啦！被当地的美食吸引，还有悠闲自在的慢生活🛵 	 🚄交通：从广州南高铁到潮汕站，第二天下午到汕头站。回来是汕头站到广州南。路上游玩远距离的打车，近距离的开共享。潮汕的景点距离都不算很远，有些走路可到。 	 🏨酒店：潮州西尔蒙花园精品美宿（潮州人民政府店），汕头豪泰轻居酒店（汕头天山路万象城店），去哪玩都很方便，也很舒服！ 	 🚲路线： Day1：酒店-广济桥-开元寺-许驸马府-载阳茶馆-潮州古城-潮州西湖-广济桥（17.30收桥）（20:00灯光秀） Day2:颐园-韩文公祠-下午高铁去汕头-西堤公园看日落-龙眼南路-汕头小公园（看夜景） Day3：潮博馆-汕头旅社-福合沟小吃-存心公馆-老妈宫戏台-邮政总局打卡-开埠文化陈列馆-汕头大厦-返程 	 🍽️饮食：部分在网上做攻略，基本没踩雷，潮汕的小吃太好吃啦！看见人多的闭眼冲就好。 潮州 1️⃣趣边餐馆（人均70 第一天到的比较晚，就在附近找了一家餐馆，有点小贵，味道ok 2️⃣潮膳楼（人均60 在牌坊街里的一家潮汕菜，牛肉丸和卤鹅绝绝子！ 3️⃣卤鹅先生（60-100不等一份 很多人，可能要排队 4️⃣阿宝甜屋（人均15 5️⃣老炳七丛松甘草水果（20一大份 可以外卖，每一种水果和甘草汁适配度极高，价格感人 6️⃣ 正宗腐乳鸡翅（8r一只 7️⃣沙茶粿条 在路边找一家人多的进去吃就ok！包好吃的！ 汕头 1️⃣万君隆即煮砂锅粥（人均50 按人头点的砂锅粥，味道鲜美，不算很便宜，粿糕好吃 2️⃣一杯潮茶 3️⃣普宁反沙番薯芋头 反沙三味➕反沙咸蛋黄必吃！ 4️⃣瑞娇嫲嫲潮汕生腌 在龙眼南路，一般都是20-30一份，建议最后一两天再吃，避免肠胃不适 	 📷游玩： 潮州历史文化底蕴丰富，潮州刺绣，古城，木雕，潮剧值得一看，感受下当地的文化氛围。 汕头可以体验下当地生活，建筑和美食，逛逛潮博馆，夏天避暑必备。 尝一尝巷子里的美食，便宜实惠好吃。（商业步行街开门很晚，不建议上午去） 	 小tips：潮州的高铁站是潮汕站，汕头是汕头站，机场在揭阳#最美古镇攻略#潮汕#汕头#潮州探店#潮州美食#汕头美食#汕头旅行#潮汕美食</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1040g2sg31517cphi0o005ph6g5jgu1uetbrqk98!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>求推荐！国庆去汕头住哪个酒店好啊？</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>国庆准带孩子去汕头玩，大家可以推荐一下酒店吗？#性价比高酒店#酒店推荐#旅游推荐#出去玩住哪里#酒店#汕头</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1040g0083187eiqojgq005nfm8gf08qic138som8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>深圳周末1.5h直达｜潮州逛吃看这一篇就够了</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>🚅交通：早上10点深圳北高铁出发，1.5h到潮汕站，南门搭K2公交车，直达酒店/潮州古城。 	 住宿：希岸酒店潮州古城牌坊街店（酒店位置很好，不在牌坊街内不吵，但也不远，很方便，卫生环境也挺OK） 	 懒人旅游，一定是休息够了才有力气玩，所以在酒店睡了个午觉，下午3：30才磨蹭出门。 	 划重点！逛景点之前先租个小电驴，旅游体验直接up一个星级~60R一天，各个景区能跑几个来回了。 开冲！🛵 	 周六行程：【西马路→开元寺→牌坊街→古城墙→广济桥夜景】 注：晚上6-7点亮灯，8点灯光秀 牌坊街的三轮车导游不要坐！很坑，一小圈60-100R，还会拉你去买东西，地方不大自己慢慢逛就行！ 	 周日行程： 【希岸酒店→西新菜市场→泰佛殿→广济桥→韩文公祠→回西马路买小吃】高铁回家~ 	 早上10点睡饱出门，先跑到古城里双生肠粉人太多了，不想排队就骑着小电驴去了附近的西新菜市场，仿佛开启了本地人副本，很多好吃的都隐藏在这！ 吃货必备： 官塘老牌鱼生：鱼生、虾生、生腌蟹（美团有尝鲜团购，图片是49的两人餐，分量足足，味道也很好！团购不含生腌蟹，60R。因为跑了很多家鱼生店，要么生意不好，要么很贵，最后摆烂找的这家真的性价比很高！） 西马路永记小食：蛋黄卷（强推！） 西新阿明肠粉 西新菜市场门口的笋粿 西新陈礼冰手磨豆浆 三利步行街门口旁边的黑芝麻茶 老柯特色小食的蚝爽、反沙芋（但这家要按人头收1块钱茶水费，有些费解） 其他记不得店名但随便买也不踩坑的： 咸水粿、烤粿条、春饼、海石花、油柑汁（加橄榄的更好喝！） 随便买踩坑了：腐乳鸡翅（鸡翅没熟，腐乳味不重，油太重） 总之是个吃＞玩的城市，作为周末休闲游还是不错的~ 说点不太好的体验：K2公交车司机不太有耐心和礼貌，扫码支付要先和司机说哪站下，他手动设置后金额后再扫码。 #深圳周末去哪儿#周边游#旅行#潮汕#潮州#被低估的宝藏小城</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1040g00830s0qgqcr2m0g4a2vsshh82nqta32sbg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>173💰汕头！小公园！续住三天！下次还来</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>来汕头玩的姐妹们可以看看这家！ ✔️步行小公园 ✔️全屋智能家居 ✔️管家式服务 两人才173💰高性价比酒店！ . ✅地理位置优越 附近都是商场，距离小公园、龙眼南路美食街也很近，骑电单车🛵兜着风就到了 . ✅房间干净舒适 没有异味，可以开窗通风，关上以后隔音也很好，设施比较新，智能声控，不用自己开灯，电视有会员，可以躺在床上看电影，卫生间干湿分开，床品很舒适睡得舒服~ . ✅酒店功能齐全，服务周到 🔸2-6楼有KTV，棋牌室，养生馆 🔸7楼还有自助洗衣房可以烘干，同层还有健身房 🔸楼顶还有一个阳台可以俯瞰喝茶🍵 🔸早餐🍜丰富可口，有汕头小吃炒粿条 🔸大厅还贴心的放置了景点美食旅行攻略 🔸酒店有独立停车场🚗对自驾非常友好 . 📍位置：汕头金平区潮汕路 . #汕头酒店#汕头#汕头民宿#广东汕头#汕头旅行#汕头旅游#汕頭住宿#汕头酒店推荐#假期出游#发现宝藏酒店#周末去哪儿#广州周边游#汕头小公园#汕头住宿推荐#五一去哪玩</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>1040g2sg311vl6612is5g5nk8i0hg850lll2cdl0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>每周逃离深圳去旅行🦋第7站：潮汕</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>大嘎好，我是挑战周末去 50 个城市旅行的深漂@MERA莓莓 	 ✨第7站：潮汕 深圳出发，周末 2 天 1 夜，高铁 1 个半小时到，两天人均 731元，建议先点赞收藏噢！ 	 具体攻略如下： 	 1️⃣深圳怎么去？ 周六 🚄D2294 深圳北站 —— 潮汕站 08:12——09:59 周日 🚄D9718 汕头站 —— 深圳北站 19:16——21:36 	 2️⃣住宿：在潮汕住哪里？ 汕头小公园附近，主打一个舒适性价比，维也*纳 	 3️⃣潮汕两天一夜怎么走？ 	 🔶Day1：潮州 牌坊街（吃逛） ➡️开元寺 ➡️广济楼 ➡️广济桥 ➡️韩文公祠➡️西马路（都在一块可步行）➡️18:00 顺风车去汕头（1 h），东市白粥用餐➡️回酒店 	 🔶Day2：汕头 自然醒➡️龙眼南路美食➡️ 汕头小公园 ➡️汕头旅社➡️十二中美食街 ➡️西堤公园 ➡️18：00潮人码头看日落🌄 	 4️⃣美食推荐： 	 潮州 甘草水果、咸水粿、糖葱薄饼、长平肠粉、同福砂锅粥、东市白粥、永逸豆浆、一杯潮茶 	 汕头 广场老牌豆花甜汤、阿猴牛肉火锅，杏花吴记（需预约） 十二中美食街（十二中草莓冰 ，跃进里腐乳鸡翅，伟顺反沙店（芋头番薯咸蛋黄），棉城鲎果 	 5️⃣❗️真实感受划重点 	 📍潮州 	 ✨牌坊街：全长 1948 米，有中式明清牌坊和错落的骑楼 	 ✨开元寺：位于牌坊街里，红墙与古寺，别有一番风味📷 	 ✨广济楼 + 广济桥：牌坊街的一头是广济楼，穿过去是广济桥，中国四大古桥之一，门票 20，人比较多，旁晚会拆桥 	 ✨韩文公祠：过了广济桥抵达，最早纪念韩愈的公祠，内部有一些碑文书法观赏，其他没啥，然后沿着石阶可以俯瞰潮州 	 ✨西马路：打车回牌坊街，可以去到西马路和义安路，童年小吃街 	 📍汕头 	 ✨12:00 龙眼南路 本地美食街，有很多好吃的，有点像长沙😂肠胃还不错的宝子可以尝试生腌 	 ✨14:30 汕头小公园 集美食与潮汕文化于一体，热门景点都在这片，游玩顺序： 	 📍汕头旅社 - 汕头邮局 - 开埠文化馆 - temp coffee - 百货大楼 - 中山纪念亭 - 老妈宫戏台 （时间充裕小伙伴阔以沿着这条路线，因为时间问题，下次有机会再来打卡完） 	 ✨16：30 十二中美食街 位于学校门口的美食聚集地！ 	 ✨17：30 西堤公园-潮人码头 看日落🌄 	 #暑期旅游#深圳周末去哪儿#深圳周边游#夏日出游#潮汕美食#潮汕旅游攻略#汕头#潮州#周末去哪玩#汕头小公园@生活薯@薯队长@走走薯</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1040g2sg314s0942mguc045j73a6a9si9i788cg8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>潮汕-吃吃吃</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>说明：我们去潮汕主打吃，然后顺便在消化的时候逛逛附近景点。 住🏠：汕头万豪 挺新的星级酒店，在高空，离吃喝玩乐打车也近 （正好有朋友住在潮州古城里特色建筑改造的酒店，感觉非常有特色。虽然不好走入，但会有小高尔夫车接送，喜欢可尝试） 交通🚗：第二天从汕头打车来回潮州，单程💰150以内 吃🍽️😚 🦐第一天 汕头 ·直奔龙眼南美食街体验当地小吃，凉茶肠粉等这条街上都有，都非常好吃。生腌吃了家连锁的，一般般，感觉不是很必要这里吃，可以留给专门吃白粥的地方再吃。 ·然后我们因为没做安排瞎走了一通去了轮渡⛴️，来回坐了俩次。但太阳下山，所以就拍了一点夜景。建议小吃街吃完直冲轮渡！来回¥2 ·晚饭吃了牛肉火锅，是🚖时让当地师傅推荐就近的。我不太记得叫什么了，但肉新鲜便宜。点了6-7盘俩个人才¥300左右！ ·晚上回酒店点了特色糖水【细姨甜汤】还不错，主打尝试下特色。 🦐第二天 潮州 ·起床就打车到潮州古城开始炫饭 牛肉粿条，烧鹅，甘草水果。反正都在古城里边吃边逛一天。超级开心。 潮州的烧鹅是很特别的好吃，一定要尝试。 ·潮州古城真的很有特色，历史，商业和居民的融合特别有意思。爱了。附近也有景点寺庙、桥等，享受美食后，消化时候景点也逛了。 ·古城里也有漂亮的咖啡店和茶馆，适合逛累了小歇。 汕头🔙 ·晚上回汕头吃了白粥，选择了吴记富苑。大家说这家是最贵的。但的确环境，服务令人舒适。然后菜品我也觉得很好吃～😋 🦐第三天 汕头 ✈️回家前去炫了黑珍珠山海居。中午没什么人，老板娘热情服务。食材新鲜，烹饪的也很好。性价比不错？俩人¥1000多，都是海鲜。鲍鱼等。我觉得好吃的，姐姐觉得正常发挥。 最后一张图附上我的汕头攻畋笔记。待下次再吃😛 	 #潮汕旅游#潮汕吃喝玩乐#吃吃喝喝的日常#吃吃喝喝#汕头美食#潮州旅行</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1040g2sg31862miae3kc05ntrijhgbug5b4p4g8o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>深圳周边游✅人均800元✅潮州两天一晚慢游</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>🚇：深圳北-潮汕站💰135r 🏨：选的潮州汽车总站附近一家酒店💰190r 🚌：下高铁后坐K2大巴去酒店💰9r ⚠️：记得提前在vx领潮州乘车码城市通 	 Day1： 官塘牛肉火锅-牌坊街-广济桥-韩文公祠-广济楼 1️⃣ 官塘牛肉火锅：💰192r（😋好吃） 2️⃣ 广济桥：💰20r/人 3️⃣ 韩文公祠：免费 4️⃣ 广济楼：免费 5️⃣ 祥顺反沙：💰28r（😕一般） 6️⃣ 阿荣砂锅粥：💰95r（🙂‍↕️性价比不高） 	 Day2: 吃早餐-开元寺-西马路小吃街-返深 1️⃣ 肠粉：💰7r（😋好吃） 2️⃣ 开元寺：免费 3️⃣ 开元老牌咸水粿：💰12r（😕一般） 4️⃣ 吴近平小吃店：💰3r（😫油且一般） 5️⃣ 老四麦粿：💰5r（😌还可以） 6️⃣ 余时冰室：💰24r（🥳超好吃） 7️⃣ 新茶饮研究社：💰24r（☺️很清新的茶味） 8️⃣ 惠来绿豆饼：💰13r（🤩很好吃） 	 ✅✅✅一些小tips ▪️广济桥：🎫20r是可以来回的，下桥的时候先去人工窗口问下工作人员（回来时提供韩文公祠预约码给工作人员核实就行）。 	 ▪️韩文公祠：对历史文化很感兴趣的可去，但不建议爬到山顶，真的挺累的。 	 ▪️惠来绿豆饼：口感绵密很好吃，基本人手几盒，拿来当伴手礼很合适，都是现做现烤。 	 ▪️开元寺：对面有官方驿站冰箱贴，款式不多但都很特别，就是价格稍贵一些，40-50之间一个。 	 ▪️潮汕站：高铁站比较远，一定要提前留好路程时间，站内比较小只有一个检票口，进去后在检票口附近找到位置等车就好。 	 ▪️潮州不大，慢慢悠悠逛两天足够了，潮牌坊比较热闹商业气息比较重，西马路比较老破小有很多老的小店，走累了可以找家按摩店按按脚，玩的开心最重要。 	 #城市达人计划#旅途中地道美食#旅游#深圳周边游#美食日记#旅游搭子#旅游攻略#潮汕美食#潮州旅行#潮州美食</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1040g00831aghf5lvmu005o5quet0bt83rvud5k8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>求推荐！国庆去汕头住哪个酒店好啊？</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>国庆准带孩子去汕头玩，大家可以推荐一下酒店吗？#性价比高酒店#酒店推荐#旅游推荐#出去玩住哪里#酒店#汕头</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1040g0083187eiqojgq005nfm8gf08qic138som8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>四天三晚潮汕自驾游🚗超详攻略 快收好👍</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>📍深圳出发🔛自驾🚗→潮汕地区四天三晚（最后一张图附有出发前🔛手写攻略😆） 	 🚗路线：潮州→汕头→南澳岛 	 🌴Day 1⃣️潮州 🏠住：牌坊街✨玖号客栈（看图3⃣️大致环境）推荐👍她家还养了猫🐱以🐱为主题，你摸它也很温顺 🅿️停车：‼️真的太不好停了😮‍💨要停到凤城公园停车场，一个晚上8元💰有点远……只好租了房东小电驴🚴一个小时10元💰 🥣吃：当然首推牛肉火锅啦😍看👀图2⃣️东门街阿茶小店🌟力荐👍好喝又好拍照📷不容错过，而且那条路也非常美，正对着广济府那座城楼，甘草水果🍉不踩雷的，随便吃！雷记粿条面肠粉力荐👍在义安路那边的小吃街，但是不建议白天去，太热了，我也没看到什么好吃的 🧩玩：广济桥，城墙，牌坊街 	 🌸🌸🌸🌸🌸 🌴Day 2⃣️汕头 🔛过路费13.3元💰简直太爽了😆 🏨住：万象城附近，美豪郦致酒店🏨一般般，主要♨️是物美价廉 🥣吃：当然要试试生腌啦😍不行✋的话也有熟腌，具体看图7⃣️推荐新溪海鲜小炒店👍网红🍲杏花吴记牛肉火锅😭要哭了，好多人‼️一定要在美团上提前至少两个小时预约，不然排不上😭只好去吃了雄盛李记牛肉🐮火锅，服务一般，不说要大锅就安排没人一个的小锅😑 🌷🌷🌷特产建议带牛肉丸🍡沙茶酱，绿豆饼（美团搜何妈绿豆饼或阿嬷绿豆饼都可以，已买，准备回购） 	 🌸🌸🌸🌸🌸 🌴Day 3⃣️南澳岛 🍀过大桥🌉费96元💰用ETC会有折扣 🏨住：金沙碧浪海景公寓🏨挺好的，就是南澳岛酒店普遍贵些，这个酒店自带停车场🅿️如果其他停车场停会报销🌸登记入住从停车🅿️场那里负一楼进去🥣吃：随便吃吧，其实和汕头差不多，粿条海鲜🦞都可以尝试 🏖️玩：租小电驴🛵追赶日落🌄非常棒👍的体验😂就是太热🔥要注意⚠️防晒🌞 租小电驴我们对比🆚了几家😌只有这家还算不错👍具体看👀图9⃣️需要押金每辆车200元 	 🔥🔥🔥🔥 这次自驾游🚗过路费➕住宿➕吃➕其他，我们每个人花了一千三以内😂因为我是电车🔋充电钱💰少 💗💗💗💗💗 请点赞👍和好好收藏我这份充满爱意❤️的攻略吧🌹😆敲字不易，求受到喜爱🔥🔥 攻略 #旅游#吃喝玩乐#打卡#自驾游#潮汕美食#潮汕小吃#暑假去哪玩#广州深圳周边游自驾游#广东省内旅游#广东省内小众游玩路线#广东省内自驾游#暑假生活</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1000g0082r1e9jo6js01g49v5iv9g81dilre6qrg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>来潮州…和男朋友连住了三晚…哈哈哈</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>#潮州吃喝玩乐#潮州住哪里#潮州民宿#潮州酒店#潮州旅游#潮州攻略#潮州住宿#潮州平价民宿#潮州打卡#潮州怎么玩</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>1040g008318al69hu0m3g5ogtl1a8ceocarj0v9g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>潮汕行-酒店分享🏨</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>我们的路线是潮州-南澳岛-汕头，以上三家酒店可以直接抄作业，地理位置都很好，环境也不错。 	 1⃣️潮州：绿洲酒店，潮州只去了牌坊街和广济桥，这两个地方离得很近，酒店出来扫个小电驴十多分钟就能到景点附近，很方便。酒店就在大路边，很好找。我妹妹睡眠不好，据她说这家酒店隔音最好，这家也是价格最高的，周五入住362。2⃣️南澳岛：南澳夏云居民宿，这家民宿感觉像是新开的，装修风格很适合拍照。二月的天气，感觉房间还是有些冷，酒店空调设备还不完善，跟老板说冷，老板就送来一个小小的暖风机，也算是解决问题了。这家民宿的交通问题不做评价，因为我们在岛上是包车的，出门直接坐车环岛游。这里也强烈建议大家可以提前包个车，这样玩下来会轻松很多。3⃣️汕头：新华酒店，据滴滴师傅说这家酒店有几十年的历史了，现在是新装修后的风格，设施都比较新。最贴心的是酒店前台有洛神花茶，妹妹觉得好喝要了好几杯，前台小姐姐直接说你上楼拿个杯子下来倒一杯吧，很多客人都这样今天听到有客人和前台聊天，还说前台的花茶会根据时令换不同的茶，这小细节还挺好的。这家酒店可以直接步行到小公园，很方便。🍚给大家推荐最后一张图里的早茶，味道不做评价，应该算是好吃的早茶，来的感觉也基本是本地人，这种很接地气的点菜方式可以去体验一下</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1000g00822u4lg94fe01g49kr562d5pfn64j92n8!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>潮州旅行🏮周末游就是班味最好的解药！</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>非常轻松的周末旅行✌🏻超级适合短途游的城市！ 	 交通：高铁🚄——潮汕站、打车🚗——潮州市区 	 住宿：潮州古城人民广场附近一家新酒店 环境很好 	 Day1️⃣古城 牌坊街——开元寺——镇海楼——西马路——广济桥——西湖公园——古城(吃饭！) Day2️⃣ 泰佛殿——韩文公祠——古城（吃饭！） 	 景点基本都与潮州历史 习俗 信仰有关，商业化的同时也能感受到潮州当地的浓浓的人文气息。许多山水冠以韩姓，走过韩文公祠才知道这都在表达对韩愈敬仰。 	 景点几乎集中在潮州古城里 步行十几分钟就到下一个目的地 街边是各种店铺 一路吃吃喝喝好幸福！古城里限制交通 不能打车骑电驴 但是本身就不大 累了找家店坐坐歇歇也很舒服~天蓝水清 真的特别好吃 轻松无压力的旅行! 	 一些碎碎念🧩： 其实一直对潮汕地区偏见很大 决定来了以后发现这也是一座不错的城市 给了我一段蛮轻松愉快的体验~ 大晚上下高铁被取消了顺风车 打不到车 迫不得已要坐公交时遇见了个司机叔叔拉客拼车 40块把我们送到了酒店。 那几天刚好查消防 但周六七八成店都开了 对我们行程影响不大。 噢天啊 两个幸运的小女孩！👼🏻 在阳光下拍照的时候：我们红头发就是最叼的！！ 潮州遇见的猫咪都胖胖壮壮的 爱睡觉 慵懒又惬意！他们好像都被养的好好 我都想变成猫咪躺在公园晒暖暖的太阳了哈哈。 潮州的天和水特别干净 韩江边吹吹风好舒服 刚出炉的潮州绿豆饼特别好吃 狠狠惊艳 耳机差点又丢了……我真的快碎掉了 潮州给我的感觉和泉州特别像呢 喜欢这个三年只带了两次的猫猫头帽 yz说像库洛米(耶 	 挺过周五下班高峰期上不去又下不来的广州死亡三号线 这一切都是我应得的！🫡 #要和最好的朋友一起出去玩#闺蜜拍照#潮州#潮汕美食#潮汕#潮州旅行#旅行搭子#日常#双人拍照#每天都有值得记录的瞬间</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1040g00831ami5bcpnc1g5o802eb08mfp08vscpg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>三刷在汕头我最爱的酒店180💰</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>新开业的酒店！位置真的很好，附近就是火车站打车起步价就能到。在汕头市繁荣地段，交通购物都特别方便。房间空间特别大，有30多平而且设施智能，还有免费的小食，吹风机是dyson的很好用，床垫软硬适中，休息的也很不错。酒店的氛围也很好，一楼大厅有自家的咖啡厅，而且各种布置已经是万圣节的气氛🎃 . 有免费的健身房和停车场，minibar 零食茶叶跟饮料，也都是免费，人均180的价格真的很香！！ . ⁉️酒店怎么找： 1. 复制这个小红书笔记的链接 2. 将链接粘贴到去哪儿旅行 app 搜索框 3.就可以直接跳转酒店了，先领优惠券再下单噢~ 就会跳转到领优惠券的界面，先领取优惠，再下单就可以立减 #汕头酒店#汕头酒店推荐#汕头住宿推荐#汕头旅游#汕头住宿#汕头民宿#汕头探店#酒店推荐</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>1040g008319g5ce1r62205p46o91qpacnlgk30a0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>✅潮汕三天两夜游玩攻略（潮州-南澳岛-汕头）</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>潮汕真的太适合citywalk 啦！ 吃喝玩乐，拍照📷样样齐全 还不知道怎么玩转潮汕的姐妹一定要看完这一篇！！ 三天两夜游玩线路推荐：潮州→南澳岛→汕头 🌸 游玩路线推荐： DAY1:🚄&lt;深圳北&gt;到&lt;潮汕站&gt;(早上到达) 到站之后有直接到市区的专线（15/人）或做k12公交也可到达。 【景点打卡】 牌坊街→开元寺→西马路→潮州西湖→许驸马府→广济桥→韩文公祠→泰佛寺→夜游广济楼 牌坊街：感受潮州牌坊街文化最为纯粹的缩影。 开元寺：本地人会去祈福拜拜的寺庙，一砖一瓦都透漏着历史气息 广济桥：潮州八景之一，在这里你可以感受到潮州的文化特色 许驸马府：是国内现存民间唯一的驸马府。宅子大而精美 西湖公园：散散步吹吹风，感受西湖落日下独特的浪漫 🌼 DAY2:潮州市区直接打顺风车直接到&lt;南澳岛&gt; 酒店放行李，晚上可以在岛上住一晚 天气好的话可以在海边看落日🌆，早起赶海，看日出 第二天早上租小电动（一般20/小时），开始岛上自由行 ⚠️tips：节假日要早点出岛，不然会堵车 【景点打卡】 长山尾灯塔→钱澳湾灯塔→后宅镇→四海→三囱崖灯塔→北回归线广场→二号公路→云澳灯塔 🏝️ DAY3:南澳岛顺风车去汕头市区(下午) 【景点打卡】 存心公馆→妈祖庙/老妈宫戏台→汕头邮政总局大楼→汕头开埠文化陈列馆→汕头旅社→镇邦美食街→西堤公园→广场轮渡→小公园 汕头小公园：老城特色骑楼建筑，复古民国风拉满 灿兴大厦：有汕头标志打卡点 西提公园：馥园(侨批纪念馆)汕头礐石大桥下面有深邃感 广场轮渡：汕头1块钱的浪漫，每20分钟一班船，建议乘坐5点、5点20这两班其中一班，刚好是日落最美的时候 🏠🏠【关于住宿】 🔸潮州市区：建议住在潮州古城附近比较方便 🔸汕头市区：建议住汕头小公园附近吃住行都的非常方便 🔸南澳岛：青澳湾日出平价民宿多适合穷游党；后宅镇日落高端海景民宿多适合度假党 #浪漫生活的记录者#小众旅游#旅行日记#旅行#旅游#旅游攻略#南澳岛#游玩攻略#潮汕#南澳岛旅游#潮州#汕头#潮汕美食#潮汕旅游#深圳周边游#旅游城市推荐#周末去哪玩</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1040g008312hnm0v67u505n3e3tc4e7hng0p1718!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>📍汕头二天一夜攻略 | 潮汕的美食之旅</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>✨ Day 1 🌅 早上9:30深圳自驾出发，12:45到达汕头，稍微有一丢丢堵车，到达之后就能感受到这座城市的氛围是松弛又热情！ 🍽 午餐推荐：天汕牛肉火锅 - 🌟 新鲜的牛肉，清爽的汤底，Q弹的牛丸、爽脆的胸口油，再搭配上自己喜欢的酱料，简直是人间美味，就连湿炒牛河都好吃到要两份的节奏，吃完后心情大好~ 🏖 下午：入住酒店、出发小公园、汕头旅社、镇邦美食街逛吃 - 💕 小公园亮灯以后拍照很出片，氛围感拉满，汕头旅社人头攒动，拍照比较困难，这三个地方都是属于比较成熟的商业街，纪念品价格相对贵一点，打卡一下就可以了，不用留太多时间，本想来还去广场坐轮渡的，费用好像是1元，我们太饿直接下一站~ 🍢 晚上：龙眼南路小吃 - 🍜 大家一定要来吃的一条街，各种美食一应俱全；1、小吴肠粉（排队但很快，值得一试）2、屋里甜汤（手工现搓先做，有点慢）3、老山合（肉松真的好吃，小朋友喜欢）4、揭阳老牌腐乳鸡翅（现炸出来的口感是难以形容的惊艳，外皮酥脆，内里肉质滑嫩爆汁，回深之后一直念念忘的就是这口腐乳鸡翅），整条街人不少，但大家脸上都带着满足的笑容，绝对让你停不下来！（不好停车，节假日会被抄牌） 🍽 晚餐推荐：围炉夜话卤水火锅 -🍲我们从龙眼南路出来就21：00了，围炉夜话还在排队，我们等了大概10分钟，第一次吃卤水火锅，开始吃比较淡，后面越煮越入味，海鲜、牛肉、内脏都很新鲜，可以试一下，但排队一小时以上个人就觉得没必要了。 ✨ Day 2 🌅 上午：龙眼路南路 - 🏛睡到自然醒，继续龙岩南路吃吃吃；1、老牌福记加浓豆浆，推荐他们家的小油条2、小吴肠粉（皮薄馅料多，随便点不踩雷）3、惠来绿豆饼（甜的、咸的都有，还推荐老香黄可以泡水喝） ☕ 中午：妈屿岛 - 🍃大人们海边放空，孩子们玩水玩沙，感受海风拂面，如果天气好的话拍照应该非常出片好看！我们去的时候是阴天，也很好一点都不晒，吹着海风散散步很舒服，毕竟面朝大海总是让人心情愉悦的~ 🏛 下午： - 🍃 从岛上出来之后随便找了一家汤粉店，汤很鲜味很正，隔壁鲜果切买的水果无敌好吃，但我都不记得名字了，感觉比汕头旅社那边好吃，抱着鲜果切我们踏上了回深的路，结束美好的旅程。💕 #汕头旅行#汕头美食#深圳周末去哪儿#美食分享#汕头二日游#汕头旅社#汕头旅游攻略@薯队长@走走薯@生活薯</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1040g008319ij3q5on21g49hi8kgkiotr66epuqg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>南澳岛海景房！！淡季值哭了！😭</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>避开高峰期来玩，270°超大落地窗、海景浴缸🛁 躺在床上就可以看见大海，live原图展示！！ 真的太好看啦！住到完全不想退房😭 交通方便，距离沙滩很近、附近有各种本地特色美食打卡，生腌、海鲜大排档、特色粿条面、甘草梅汁水果……潮汕真的挺好吃啦🥰 	 傍晚日落时分也超级好看，晚霞会照进整个房间，在房间等待了一场用言语无法表达出来的浪漫日落！ 房间每个设计都可以看见房东的用心，随时一拍都很出片呀，下次还想来住！ 	 #度假酒店#海景房#宝藏民宿推荐#汕头旅行#南澳岛#南澳岛民宿#南澳岛民宿推荐#汕头南澳岛#南澳岛攻略#南澳岛海景民宿</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>1040g2sg318qmrdoogo305ofh8s2k17231k7euk8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>求潮州住宿推荐|民宿或酒店都可以❤️</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>求潮州住宿推荐 酒店和民宿都可以 十分感谢 16号到潮州，2人出来玩，想要1.8米大床房 #潮州#潮州旅行#潮州美食#潮州民宿#潮州酒店#潮州住宿#潮州牌坊街#潮州旅游</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>1040g008319s2r62cnc004a46svqes2868tck0gg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>周末潮汕行 在35层俯瞰韩江广济桥</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>🚗佛山出发驱车5小时，终于来到潮州，开启两日一夜的旅程，本次旅途下榻是潮州腾瑞皇冠假日酒店 	 🛋️价格和预订：我通过IHG的app预订，暑假+周六晚叠双重buff达到了惊人的1400+一晚的价格，对于皇冠假日这个品牌的中档级别来说属实是有点离谱，广州保利洲际同时段才800+一晚，如果纯属是打卡住酒店玩的话，不局限潮汕地区，我认为还有更好的选择，或者是避开假期节日会有更高的性价比 	 🏨外观和硬件：酒店应该是这个片区最高的建筑了，一眼就能看到，有地下两层的停车场，但是停车场设计有点不合理，负一下负二竟然要倒车才够位置下斜坡，停车免费，不需要额外领停车券。 	 外观设计和里面装修都很现代简洁，22年开业的，所以设施设备都还很好。 	 🛵地理位置：韩江畔，拉开窗帘就是江景，距离牌坊街和主要的美食打卡点隔着一座桥大概2公里左右，高峰时段略堵车建议错峰出行，不太推荐无车党人士入住，感觉会比较难打车。 	 🛎️服务：因为我们是IHG的白金卡会员，有收到酒店的前调电话，酒店并且主动升房，升到了豪华江景行政房型。房间提供欢迎水果，mini bar畅饮（可乐雪碧和茶里茶包），以及我们额外要求的延迟退房，这些都有享受到。 🪟再说房间的细节，这个房型大概是有40平方，窗边有沙发躺椅，还有潮汕人最喜欢的茶具，正对着的大落地玻璃就是韩江广济桥，另外一边的窗外是山景，这个房型是在走廊的一端的。 	 🛏️应该是2米大床，床品柔软舒服，枕头高度刚好 	 🛀浴室的装修设计也用了很多大理石，非常有质感，浴缸的大落地玻璃也是可以看到江景和山景，一定要带上泡泡浴球一边泡澡一边享受美景哦！洗手台略拥挤，女生化妆品多嘛，如果洗手台可以再大一点有个凳子方便梳妆就更好了。另外还有一个衣帽间，换衣服和放行李箱都很够位置～ #潮州#潮州旅行#潮州腾瑞皇冠假日酒店#潮汕美食#潮汕旅游#洲际会员#ihg#江景房#广州周边游#酒店测评</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>1040g2sg3175fd7rqjk3g4a01p2cg88b60qvpl20!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>🚗在潮汕，这个温泉私汤2天1晚才329，值哭了</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>酒店不大，但设计很有特色，超适合拍照了，随便一拍都很出片，每个房间都自带泡池，一边冲茶一边泡汤简直不要太惬意，楼下还有两个儿童游乐区域，都是温泉水，不用担心太冷，还是很适合带孩子来玩的#潮汕周边游#温泉#亲子时光#温泉酒店</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>1040g2sg30r0o7g65h85g5n37ousk6eh11h9huvo!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>潮州！！广济桥！！滑梯loft值哭😭</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>潮州！滑梯设计现代风好符合年轻人的审美！ ✅落地窗loft ✅巨幕投影 ✅就在广济桥 人均才80！以后来潮州...🔒死这家平价民宿 . ✨位置深得我心！ 走路5⃣分钟就能到韩文公祠和广济桥 而且周边吃的、玩的都超齐全🍜🏮 晚上看灯光秀更是棒极了 老城区的韵味和现代化装潢融为一体 . ✨现代化的风格我好爱！ 房间很有设计感，特别是浴缸🛁细节用心 房间位于景区内但是很安静，隔音效果也可以 阳台上的江景美哭了，可以看看风景吹吹风🍃 - ✨设施好齐全！ 民宿全部使用微水泥，光脚踩地板就像在自己家一样 房间巨幕投影、卫生间干湿分离、烘干房免费 房间还配备凤凰单丛茶和潮汕特色小点心 下次一定带娃再来住一遍滑滑梯房💕 . 📍地址：潮州湘桥区桥东东兴北江兴街 	 #潮州#酒店推荐#酒店#民宿#潮州旅行#潮州美食#平价民宿#潮州古城#潮州牌坊街#周末去哪儿 感谢@搁哪发财呢 全部图文授权</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>1040g008319jpaid0na6g5p7ntga0i5cql1bkhc0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>潮汕四天三夜笔记｜①交通+住宿……</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>潮汕回来3天啦，终于有时间梳理一下这次旅行的攻略。因为也是提前一周看到机票sososo便宜，果断请假出发！ 	 整个行程是潮州一天半+汕头两天半。 Day1. 9点左右抵达潮州机场。 Day1. 潮州古城+吃吃吃 Day2. 潮州→12:50城际班车到汕头→汕头老城区 Day3. 南澳岛→汕头吃吃吃 Day4. 汕头吃吃吃→下午大巴潮汕机场返程 	 关于住宿🏨: 🌟潮州 推荐住在牌坊街外围，不要定在人民广场。本来酒店定在人民广场，机场去潮州路上，顺风车师傅极力劝说下，还是定了牌坊街外围酒店。事实上师傅是对的，太方便了！感谢！不要定古城里面的！！！要走很久打车，小电驴都进不去。 🌟汕头 推荐万象城附近。周围吃的多，有商场，也有美食街。有酒店也有民宿。民宿注意看下评价，因为我住的两天，有一天空调滴水，吵的我只睡了4个小时。而酒店评价有客人写了，没有看到 	 关于城际🚘: 🌟潮汕机场→潮州:确实有大巴车，但是时间非常固定，早上9点出机场需要等到9点50才有车。果断打了顺风车拼车，实际上也就贵了10几块钱。直接送到酒店很方便！（P4） 🌟潮州→汕头:有城际班车，30一个人，有固定班次，是小车很舒服。我是没有网上订票，早上吃完饭骑着小电驴就顺路买了中午的。淡季整个车上就我一个人旺季建议提前定，毕竟座位少。（P5-7） 🌟汕头⇆南澳岛: 早上去的时候是坐的公交，汕头站出发，161k，支付宝扫码，12元一个人。（P8）还是因为淡季，没有坐满，可以坐在避阳一侧。南澳岛游客中心下车即可 晚上返程等车的时候本计划坐公交，但是有顺风车司机在车站拉客。砍砍价也是可以拼车走掉，不用等公交，直接送到酒店。车上师傅也很热情，推荐了一些吃的～ 🌟汕头→潮汕机场:机场大巴，28元一个人，万象城步行5分钟，金海湾酒店就是始发站。班次很多，淡季不需要提前买票，旺季可以顺路提前买好票。（P9） 	 🌟市内交通:潮州和汕头共享电动车超级方便，基本上没有怎么打车。（P10）买了7天次卡，基本上市内的目的地，都可以电动车骑车到，有些步行景区部分电动车不能进，留意下禁行区域即可～也不用打车和公交，电动车免去了大量步行烦恼！ 	 🌟南澳岛:租了小电驴，除了热要注意点防晒没有其他问题！55一天，电量充足，小电驴颜值也很棒 （P11）租车的店家也是小红书联系的，老板人不错！ 	 美食下一篇更新～ #潮汕#潮汕旅游#汕头#潮州#旅游攻略</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>1040g008317nnghiu3u0g4a5i4mf161pmuubbd7o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>🇩🇪𝙄𝙣𝙩𝙚𝙧𝙘𝙞𝙩𝙮𝙃𝙤𝙩𝙚𝙡 🇩🇪</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>汕头潮宏基城际酒店 粤东首家，盛夏启幕 内海湾畔，观山望海 当“徳”系精致，遇见“潮”派传承 满载「高效、品质、简约」德式基因传承包豪斯美学，功能与美感 酒店将潮汕三品——“品文化、品潮味、品茶香”，精细嵌入您的旅程。#酒店推荐#品质生活#潮汕美食#潮汕旅游攻略三天两夜</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>1040g2sg316nlu66e3e905obbmcs0kqbu898ulfg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>潮州｜腾瑞皇冠假日酒店 Crowne Plaza</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>在新年前夕，我和家人决定前往潮汕地区游玩，尝尝当地著名的美食。在寻找潮州和汕头的住宿时，我发现潮州并没有万豪酒店的选项，所以最终选择了皇冠假日酒店。两晚的费用在2800💰左右，对于假日酒店来说价格偏高，但考虑到潮州的酒店选择有限，加之新年期间的高需求，这个价格也就可以接受了。 	 皇冠假日酒店坐落于韩江河畔，步行大约10分钟即可抵达广济桥，韩文公祠也近在咫尺。潮州的老城区在韩江的另一侧，所以如果你入住江景房的话，是可以完整的欣赏到潮州古城的风光的。我入住的山景房虽然不能直观城区，但山景同样迷人，尤其是早晨日出时分，阳光从山后缓缓升起，落地窗让这美好景象尽收眼底。 	 酒店的CI速度比较快，前台还给升级了房间。但很有趣的是，前台当时表示我原本定的房间是没有窗户的，所以特地为我升级到了山景房。我实在是无法相信这么新的假日酒店会有没有窗户的房间，还为此向前台确认，但是得到了相同的答案。 	 但是需要吐糟的是，酒店大堂外的门童几乎形同虚设。第一天晚上入住时，车都到了眼前了，俩工作人员还在那谈笑风生呢，丝毫没有给开门的意思。拿行李也是做做样子，几乎是不使劲儿，主要还得靠我自力更生。 	 酒店房间因为新近开业，设施非常新。房间装修现代，贴合假日酒店一贯的风格，最大的看点无疑是宽敞的落地窗，让人能够毫无遮挡地享受外面的景色。 	 当前，酒店并未设立行政酒廊，而是在CI吧台旁边的餐厅区提供一些甜点和饮品。由于餐厅对外开放，场内较为嘈杂，任何人都可以进入。如果在此用餐，展示会员号即可享受折扣。 	 总之，尽管潮州的酒店选择有限，皇冠假日酒店作为当地较好的住宿选项之一，其舒适的住宿环境和便利的地理位置，加上潮州独特的文化和美食体验，仍然能让旅行充满美好回忆。在享受潮州的美好时刻时，酒店的一些小问题也就显得不那么重要了。 	 #潮汕酒店  #潮州旅游  #潮州美食  #潮州  #潮州皇冠假日酒店  #皇冠假日酒店</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>1040g0k030un49rf05g0049vmngj863qgbf6afo0!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>#酒店</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>热知识！揭阳机场不用住揭阳 ！三个市一样近！</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>经过多个司机科普，揭阳潮汕机场 也就是 揭阳潮州汕头共同的机场，到三个市市区的距离差不了多少。这个知识到最后走的时候才有了深刻的认知！ 我们第一天到的晚就在揭阳找了个近的酒店，感觉还算方便，所以最后一天在汕头玩完想着第二天的飞机还是住回揭阳比较好，专门约了顺风车连夜汕头回揭阳。 上车以后开了一段，司机才知道我们是为了方便第二天去机场，问我们为何不直接从我们上车的酒店直接去机场呢？我们的酒店在汕头高铁站附近，走高速只要四十分钟。反倒是我们在揭阳的酒店，走的是乡道，开不快，也得二十分钟。一下子给我们问懵了，这个确实是完全不知道。也不好临时下车了。 于是本来从汕头酒店可以顺风车50块钱以内，四十分钟到机场，我们花了50块钱一个小时顺风车回到了揭阳的酒店，第二天早上又打不到车加价到40块钱去了机场，含泪多折腾自己一个小时并且搭了钱。 	 家人们如果要第二天去机场，可以不用只看揭阳的酒店，说不定潮州和汕头的位置走高速到机场比揭阳走小路更近更方便。像我们一样打顺风车的朋友，算下价格说不定少转移一次更划算#揭阳机场#揭阳潮汕国际机场#揭阳住宿</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>1040g008319hqfbv6ms4g5po7mgi7ec6rnvtjtt0!nd_dft_wlteh_webp_3.jpg</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>#酒店</t>
         </is>
       </c>
     </row>
